--- a/STORE.WebAPI.Admin/ExcelModel/用户.xlsx
+++ b/STORE.WebAPI.Admin/ExcelModel/用户.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F550DB0-DAE3-4C66-A1B6-35BA5231D6E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>组织机构编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,38 +38,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>办公电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,20 +391,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,41 +412,50 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PTR账号,本地账号"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{2A0D510A-F7D6-4976-BA26-FA3B2FFC4780}">
+      <formula1>"管理员,普通用户"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{F898ACB6-93A7-4925-940C-F193B0DA6013}">
       <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{0A1502E8-3F84-4A06-B5F4-497E86591BDC}">
+      <formula1>"本地账号,PTR账号"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/STORE.WebAPI.Admin/ExcelModel/用户.xlsx
+++ b/STORE.WebAPI.Admin/ExcelModel/用户.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F550DB0-DAE3-4C66-A1B6-35BA5231D6E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>组织机构编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>员工编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,35 +33,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账号类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
+    <t>用户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组织机构编码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账号类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>员工姓名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性别</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +207,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -110,8 +249,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -391,73 +531,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="1" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"PTR账号,本地账号"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{2A0D510A-F7D6-4976-BA26-FA3B2FFC4780}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"管理员,普通用户"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{F898ACB6-93A7-4925-940C-F193B0DA6013}">
-      <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{0A1502E8-3F84-4A06-B5F4-497E86591BDC}">
-      <formula1>"本地账号,PTR账号"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>"激活,禁用"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/STORE.WebAPI.Admin/ExcelModel/用户.xlsx
+++ b/STORE.WebAPI.Admin/ExcelModel/用户.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693AEE1E-7B27-4AE4-9D6E-F830D9CACBC5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,155 +50,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>组织机构编码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>账号类型</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>账号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>用户类型</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>员工姓名</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>性别</t>
-    </r>
+    <t>组织机构编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,22 +88,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -251,7 +116,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -531,10 +396,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -587,16 +454,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PTR账号,本地账号"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"管理员,普通用户"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"激活,禁用"</formula1>
     </dataValidation>
   </dataValidations>
